--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AD/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AD/10/seed5/result_data_KNN.xlsx
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.734</v>
+        <v>-7.887</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.414</v>
+        <v>-21.937</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -641,7 +641,7 @@
         <v>-15.79</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.481999999999999</v>
+        <v>-8.310999999999998</v>
       </c>
       <c r="E12" t="n">
         <v>13.01</v>
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.284000000000001</v>
+        <v>-8.263</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.492</v>
+        <v>-8.106</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
